--- a/data-raw/kalamkar.wheat.yield.xlsx
+++ b/data-raw/kalamkar.wheat.yield.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CBDBEA-83B4-4076-BFFD-3057B75F73ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="492" windowWidth="15024" windowHeight="7872"/>
+    <workbookView xWindow="4220" yWindow="3180" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +19,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -77,14 +79,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,14 +97,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,7 +217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,19 +390,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="6.33203125" style="3"/>
+    <col min="1" max="16384" width="6.36328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>62.5</v>
       </c>
@@ -447,7 +452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -497,7 +502,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>20.5</v>
       </c>
@@ -547,7 +552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>29.5</v>
       </c>
@@ -597,7 +602,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>24</v>
       </c>
@@ -647,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>29.5</v>
       </c>
@@ -697,7 +702,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -747,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>22.5</v>
       </c>
@@ -797,7 +802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>29.5</v>
       </c>
@@ -847,7 +852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>23.5</v>
       </c>
@@ -897,7 +902,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>28.5</v>
       </c>
@@ -947,7 +952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>19.5</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>34</v>
       </c>
@@ -1097,7 +1102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>19</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15.5</v>
       </c>
@@ -1247,7 +1252,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>24.5</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1347,7 +1352,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>29</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>29.5</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>25.5</v>
       </c>
@@ -1547,7 +1552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>34.5</v>
       </c>
@@ -1597,7 +1602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24.5</v>
       </c>
@@ -1647,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>34.5</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>55</v>
       </c>
@@ -1747,7 +1752,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>19.5</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>39</v>
       </c>
@@ -1847,7 +1852,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>11.5</v>
       </c>
@@ -1947,7 +1952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>20</v>
       </c>
@@ -1997,7 +2002,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>16.5</v>
       </c>
@@ -2047,7 +2052,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>19.5</v>
       </c>
@@ -2097,7 +2102,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -2147,7 +2152,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>27.5</v>
       </c>
@@ -2197,7 +2202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -2247,7 +2252,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>7.5</v>
       </c>
@@ -2297,7 +2302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>49.5</v>
       </c>
@@ -2347,7 +2352,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>22.5</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>17</v>
       </c>
@@ -2447,7 +2452,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>39.5</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>25</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>19</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>10</v>
       </c>
@@ -2647,7 +2652,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>17</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>19.5</v>
       </c>
@@ -2747,7 +2752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>24.5</v>
       </c>
@@ -2797,7 +2802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>23.5</v>
       </c>
@@ -2847,7 +2852,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>35.5</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>12.5</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>11.5</v>
       </c>
@@ -2997,7 +3002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>39</v>
       </c>
@@ -3047,7 +3052,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>6</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>26.5</v>
       </c>
@@ -3147,7 +3152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>12</v>
       </c>
@@ -3197,7 +3202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>54.5</v>
       </c>
@@ -3247,7 +3252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>25.5</v>
       </c>
@@ -3297,7 +3302,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>25</v>
       </c>
@@ -3347,7 +3352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>18</v>
       </c>
@@ -3397,7 +3402,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>25.5</v>
       </c>
@@ -3447,7 +3452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>36</v>
       </c>
@@ -3497,7 +3502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>15</v>
       </c>
@@ -3547,7 +3552,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>30</v>
       </c>
@@ -3597,7 +3602,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>35</v>
       </c>
@@ -3647,7 +3652,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>24</v>
       </c>
@@ -3697,7 +3702,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>37.5</v>
       </c>
@@ -3747,7 +3752,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>28</v>
       </c>
@@ -3797,7 +3802,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>12.5</v>
       </c>
@@ -3847,7 +3852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>29</v>
       </c>
@@ -3897,7 +3902,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>23.5</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>21</v>
       </c>
@@ -3997,7 +4002,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>38.5</v>
       </c>
@@ -4047,7 +4052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>12</v>
       </c>
@@ -4097,7 +4102,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>18.5</v>
       </c>
@@ -4147,7 +4152,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>23.5</v>
       </c>
@@ -4197,7 +4202,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>18</v>
       </c>
@@ -4247,7 +4252,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>31.5</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>30</v>
       </c>
@@ -4347,7 +4352,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>47.5</v>
       </c>
@@ -4397,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
